--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1627.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1627.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.124704320297759</v>
+        <v>0.9078458547592163</v>
       </c>
       <c r="B1">
-        <v>2.880318757287463</v>
+        <v>2.995015859603882</v>
       </c>
       <c r="C1">
-        <v>4.117425194444546</v>
+        <v>4.325307846069336</v>
       </c>
       <c r="D1">
-        <v>2.280748626955065</v>
+        <v>3.015062093734741</v>
       </c>
       <c r="E1">
-        <v>1.093492641300415</v>
+        <v>1.391870021820068</v>
       </c>
     </row>
   </sheetData>
